--- a/whonet/static/whonet_xl/whonet_specimen.xlsx
+++ b/whonet/static/whonet_xl/whonet_specimen.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="941" uniqueCount="381">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="969" uniqueCount="395">
   <si>
     <t>SPEC_CODE</t>
   </si>
@@ -1167,12 +1167,54 @@
   </si>
   <si>
     <t>Foot, diabetic</t>
+  </si>
+  <si>
+    <t>et</t>
+  </si>
+  <si>
+    <t>urine</t>
+  </si>
+  <si>
+    <t>blood</t>
+  </si>
+  <si>
+    <t>ure</t>
+  </si>
+  <si>
+    <t>ot (stone)</t>
+  </si>
+  <si>
+    <t>ki (stone)</t>
+  </si>
+  <si>
+    <t>eta</t>
+  </si>
+  <si>
+    <t>et tip</t>
+  </si>
+  <si>
+    <t>sputum</t>
+  </si>
+  <si>
+    <t>cat</t>
+  </si>
+  <si>
+    <t>b l</t>
+  </si>
+  <si>
+    <t>csf</t>
+  </si>
+  <si>
+    <t>sy</t>
+  </si>
+  <si>
+    <t>pleural fluid</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1484,17 +1526,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F188"/>
+  <dimension ref="A1:F202"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+    <sheetView tabSelected="1" topLeftCell="A175" workbookViewId="0">
+      <selection activeCell="C192" sqref="C192"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="38.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.28515625" bestFit="1" customWidth="1"/>
@@ -5260,6 +5302,118 @@
         <v>50</v>
       </c>
     </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C189" t="s">
+        <v>381</v>
+      </c>
+      <c r="D189" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C190" t="s">
+        <v>382</v>
+      </c>
+      <c r="D190" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C191" t="s">
+        <v>383</v>
+      </c>
+      <c r="D191" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C192" t="s">
+        <v>384</v>
+      </c>
+      <c r="D192" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="193" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C193" t="s">
+        <v>385</v>
+      </c>
+      <c r="D193" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="194" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C194" t="s">
+        <v>386</v>
+      </c>
+      <c r="D194" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="195" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C195" t="s">
+        <v>387</v>
+      </c>
+      <c r="D195" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="196" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C196" t="s">
+        <v>388</v>
+      </c>
+      <c r="D196" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="197" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C197" t="s">
+        <v>389</v>
+      </c>
+      <c r="D197" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="198" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C198" t="s">
+        <v>390</v>
+      </c>
+      <c r="D198" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="199" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C199" t="s">
+        <v>391</v>
+      </c>
+      <c r="D199" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="200" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C200" t="s">
+        <v>392</v>
+      </c>
+      <c r="D200" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="201" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C201" t="s">
+        <v>393</v>
+      </c>
+      <c r="D201" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="202" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C202" t="s">
+        <v>394</v>
+      </c>
+      <c r="D202" t="s">
+        <v>40</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
